--- a/assets/excelTest.xlsx
+++ b/assets/excelTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itzik\WebstormProjects\Hameorer-client\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCF2BC1-5C9A-4551-ACC9-53B6DAF8DB09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D5BB50-575C-41F8-AFD7-94C064477CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{5DF7FEAC-A371-4FC5-949C-06B48887A9EB}"/>
   </bookViews>
@@ -36,52 +36,76 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>username1</t>
-  </si>
-  <si>
-    <t>username2</t>
-  </si>
-  <si>
-    <t>username3</t>
-  </si>
-  <si>
-    <t>username4</t>
-  </si>
-  <si>
-    <t>username5</t>
-  </si>
-  <si>
-    <t>username6</t>
-  </si>
-  <si>
-    <t>username7</t>
-  </si>
-  <si>
-    <t>username8</t>
-  </si>
-  <si>
-    <t>username9</t>
-  </si>
-  <si>
-    <t>groupName</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>userame</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>itzik</t>
+  </si>
+  <si>
+    <t>dani</t>
+  </si>
+  <si>
+    <t>yosi</t>
+  </si>
+  <si>
+    <t>riki</t>
+  </si>
+  <si>
+    <t>auk</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>dgsf</t>
+  </si>
+  <si>
+    <t>dgfsa</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>phonenumber</t>
+  </si>
+  <si>
+    <t>asd@gmail.com</t>
+  </si>
+  <si>
+    <t>asd1@gmail.com</t>
+  </si>
+  <si>
+    <t>asd2@gmail.com</t>
+  </si>
+  <si>
+    <t>asd3@gmail.com</t>
+  </si>
+  <si>
+    <t>0543248342</t>
+  </si>
+  <si>
+    <t>0543248341</t>
+  </si>
+  <si>
+    <t>0543248340</t>
+  </si>
+  <si>
+    <t>0543248339</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +115,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -113,13 +145,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -432,107 +468,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB224378-4682-44EB-B85B-445B48CECE2B}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>121212</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>131313</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>141414</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>151515</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>121212</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>131313</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>141414</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>151515</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>161616</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>171717</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>181818</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>191919</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>202020</v>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{863B418C-D9F3-45A8-97DD-C29F45C88487}"/>
+    <hyperlink ref="D3:D5" r:id="rId2" display="asd@gmail.com" xr:uid="{52F833AC-000D-457E-A232-59201B58BD62}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{F0F317C1-7280-44B9-A099-47A5A9ADDFE9}"/>
+    <hyperlink ref="D4" r:id="rId4" xr:uid="{2C05B671-063A-4357-8629-AA063F7647DE}"/>
+    <hyperlink ref="D5" r:id="rId5" xr:uid="{A20E8799-599D-49FD-82CE-43BCDA14C9B6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/assets/excelTest.xlsx
+++ b/assets/excelTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itzik\WebstormProjects\Hameorer-client\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D5BB50-575C-41F8-AFD7-94C064477CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8944CAD1-5B99-4B56-91EC-80423FA6D1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{5DF7FEAC-A371-4FC5-949C-06B48887A9EB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>password</t>
   </si>
@@ -53,52 +53,16 @@
     <t>dani</t>
   </si>
   <si>
-    <t>yosi</t>
-  </si>
-  <si>
-    <t>riki</t>
-  </si>
-  <si>
-    <t>auk</t>
-  </si>
-  <si>
-    <t>asd</t>
-  </si>
-  <si>
-    <t>dgsf</t>
-  </si>
-  <si>
-    <t>dgfsa</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
     <t>phonenumber</t>
   </si>
   <si>
-    <t>asd@gmail.com</t>
-  </si>
-  <si>
-    <t>asd1@gmail.com</t>
-  </si>
-  <si>
-    <t>asd2@gmail.com</t>
-  </si>
-  <si>
-    <t>asd3@gmail.com</t>
-  </si>
-  <si>
     <t>0543248342</t>
   </si>
   <si>
-    <t>0543248341</t>
-  </si>
-  <si>
-    <t>0543248340</t>
-  </si>
-  <si>
-    <t>0543248339</t>
+    <t>1asd@gmail.com23</t>
   </si>
 </sst>
 </file>
@@ -151,8 +115,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -468,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB224378-4682-44EB-B85B-445B48CECE2B}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -493,10 +457,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -509,72 +473,17 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>131313</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>141414</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>151515</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{863B418C-D9F3-45A8-97DD-C29F45C88487}"/>
-    <hyperlink ref="D3:D5" r:id="rId2" display="asd@gmail.com" xr:uid="{52F833AC-000D-457E-A232-59201B58BD62}"/>
-    <hyperlink ref="D3" r:id="rId3" xr:uid="{F0F317C1-7280-44B9-A099-47A5A9ADDFE9}"/>
-    <hyperlink ref="D4" r:id="rId4" xr:uid="{2C05B671-063A-4357-8629-AA063F7647DE}"/>
-    <hyperlink ref="D5" r:id="rId5" xr:uid="{A20E8799-599D-49FD-82CE-43BCDA14C9B6}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{AA655F1A-278D-44BF-8677-FF7AF13EB692}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/excelTest.xlsx
+++ b/assets/excelTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itzik\WebstormProjects\Hameorer-client\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8944CAD1-5B99-4B56-91EC-80423FA6D1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507AF5CA-BCBE-4F03-953F-1CA7A695C175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{5DF7FEAC-A371-4FC5-949C-06B48887A9EB}"/>
   </bookViews>
@@ -62,7 +62,7 @@
     <t>0543248342</t>
   </si>
   <si>
-    <t>1asd@gmail.com23</t>
+    <t>1asd@gmail.com2332</t>
   </si>
 </sst>
 </file>

--- a/assets/excelTest.xlsx
+++ b/assets/excelTest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itzik\WebstormProjects\Hameorer-client\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507AF5CA-BCBE-4F03-953F-1CA7A695C175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295DB1D6-6AF7-48D0-830D-0075889E73D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{5DF7FEAC-A371-4FC5-949C-06B48887A9EB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>password</t>
   </si>
@@ -62,7 +62,22 @@
     <t>0543248342</t>
   </si>
   <si>
-    <t>1asd@gmail.com2332</t>
+    <t>Dani</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Roy</t>
+  </si>
+  <si>
+    <t>1asd456456@gmail.com435</t>
+  </si>
+  <si>
+    <t>1asd456456@gmail.com154</t>
+  </si>
+  <si>
+    <t>1asd456456@gmail.com156467</t>
   </si>
 </sst>
 </file>
@@ -424,7 +439,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -432,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB224378-4682-44EB-B85B-445B48CECE2B}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -474,9 +489,43 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>121212</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>121212</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>54</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -484,6 +533,8 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{AA655F1A-278D-44BF-8677-FF7AF13EB692}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{B03B097A-363D-4EE0-BC14-85B12F8C932E}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{8A5F6998-681F-44D4-810A-886DCA12B1A5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
